--- a/medicine/Psychotrope/John_Molson_(1787-1860)/John_Molson_(1787-1860).xlsx
+++ b/medicine/Psychotrope/John_Molson_(1787-1860)/John_Molson_(1787-1860).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Molson (Montréal, 3 octobre 1787 - 12 juillet 1860), fils aîné de John Molson l'ancien, est un homme d'affaires, officier de milice, fonctionnaire, juge de paix et homme politique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille avec son père dans la brasserie et s'intéresse aux techniques de production de la bière. En 1810, son père lui confie la direction de l'entreprise. Par ailleurs, avec le mécanicien John Jackson, il étudie les principes et les applications de la puissance à vapeur. Ces connaissances lui sont utiles dans les autres entreprises de la famille, notamment la navigation.
 En 1837, il devient le président de la première compagnie de chemin de fer au Canada, St Lawrence and Champlain. En 1857, il rejoint son frère William Molson pour l'organisation de la Banque Molson.
